--- a/Data/Data collected/Questionnaires_lables_old/2ASRS_2025.xlsx
+++ b/Data/Data collected/Questionnaires_lables_old/2ASRS_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tulum/Dropbox/תואר פסיכולוגיה/תואר שני/תואר שני קלינית מחקרית/שיעורים - קלינית/מעבדה/תזה/Data/Data Collected/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tulum/Dropbox/Github/Creativity-in-ADHD/Data/Data collected/Questionnaires_lables_old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D163924-F31A-2941-9C97-2319EA1A95C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B4A22E-BDC2-6347-8B7B-4B08B8361E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="520" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="343">
   <si>
     <t>StartDate</t>
   </si>
@@ -1051,6 +1051,9 @@
   </si>
   <si>
     <t>mkSJjy</t>
+  </si>
+  <si>
+    <t>vQtQiu</t>
   </si>
 </sst>
 </file>
@@ -1434,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A92"/>
+    <sheetView tabSelected="1" topLeftCell="Z72" workbookViewId="0">
+      <selection activeCell="AM78" sqref="AM78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8219,8 +8222,8 @@
       <c r="AL57">
         <v>28</v>
       </c>
-      <c r="AM57" s="2" t="s">
-        <v>88</v>
+      <c r="AM57" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="1:39" ht="48" x14ac:dyDescent="0.2">
@@ -10718,8 +10721,8 @@
       <c r="AL78">
         <v>29</v>
       </c>
-      <c r="AM78" s="2" t="s">
-        <v>88</v>
+      <c r="AM78" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="79" spans="1:39" ht="48" x14ac:dyDescent="0.2">
@@ -12392,7 +12395,7 @@
   <autoFilter ref="A2:AM93" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C92 D1:D92 G1:G92 I1:I92 J1:J92 K1:K92 L1:L92 M1:M92 P1:P92 Q1:Q92 R1:R92 S1:S92 T1:T92 U1:U92 V1:V92 W1:W92 X1:X92 Y1:Y92 Z1:Z92 AA1:AA92 AB1:AB92 AC1:AC92 AD1:AD92 AE1:AE92 AF1:AF92 AG1:AG92 AH1:AH92 AI1:AI92 AM1:AM92" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C92 D1:D92 G1:G92 I1:I92 J1:J92 K1:K92 L1:L92 M1:M92 P1:P92 Q1:Q92 R1:R92 S1:S92 T1:T92 U1:U92 V1:V92 W1:W92 X1:X92 Y1:Y92 Z1:Z92 AA1:AA92 AB1:AB92 AC1:AC92 AD1:AD92 AE1:AE92 AF1:AF92 AG1:AG92 AH1:AH92 AI1:AI92 AM1:AM56 AM58:AM77 AM79:AM92" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>